--- a/Training_Data_nSamples.xlsx
+++ b/Training_Data_nSamples.xlsx
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,106 +594,106 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19979382.17450935</v>
+        <v>21533441.26894999</v>
       </c>
       <c r="C2">
-        <v>617.2376149485967</v>
+        <v>406.1322625712629</v>
       </c>
       <c r="D2">
-        <v>0.9637230284007967</v>
+        <v>3.288972364287583</v>
       </c>
       <c r="E2">
-        <v>81493.37891860114</v>
+        <v>102246.8647483133</v>
       </c>
       <c r="F2">
-        <v>752.4391604202914</v>
+        <v>677.521785558692</v>
       </c>
       <c r="G2">
-        <v>4.977148971513798</v>
+        <v>9.523080450581231</v>
       </c>
       <c r="H2">
-        <v>0.7741014938207151</v>
+        <v>0.7137169382097754</v>
       </c>
       <c r="I2">
-        <v>0.795722396909169</v>
+        <v>0.796891849362411</v>
       </c>
       <c r="J2">
-        <v>0.6693589797403684</v>
+        <v>0.782175773231273</v>
       </c>
       <c r="K2">
-        <v>886.6857714351563</v>
+        <v>748.0427214807343</v>
       </c>
       <c r="L2">
-        <v>1167.522837444762</v>
+        <v>779.8940818357509</v>
       </c>
       <c r="M2">
-        <v>1032.94873199972</v>
+        <v>759.5065468139358</v>
       </c>
       <c r="N2">
-        <v>0.9637230284007967</v>
+        <v>3.288972364287583</v>
       </c>
       <c r="O2">
-        <v>0.9637230284002763</v>
+        <v>3.288972364283355</v>
       </c>
       <c r="P2">
-        <v>0.963723028399005</v>
+        <v>3.288972364283517</v>
       </c>
       <c r="Q2">
-        <v>19982249.40916856</v>
+        <v>21558185.31959894</v>
       </c>
       <c r="R2">
-        <v>19981290.04556038</v>
+        <v>21549969.47964752</v>
       </c>
       <c r="S2">
-        <v>19980205.69462671</v>
+        <v>21541533.10081408</v>
       </c>
       <c r="T2">
-        <v>19979382.17450935</v>
+        <v>21533441.26894999</v>
       </c>
       <c r="U2">
-        <v>781999.6377831083</v>
+        <v>486510.3880239241</v>
       </c>
       <c r="V2">
-        <v>891474.2868036242</v>
+        <v>768988.1674247545</v>
       </c>
       <c r="W2">
-        <v>934505.2365003519</v>
+        <v>831684.6016370875</v>
       </c>
       <c r="X2">
-        <v>944800.795879558</v>
+        <v>847619.1161821793</v>
       </c>
       <c r="Y2">
-        <v>4.977148971513798</v>
+        <v>9.523080450581231</v>
       </c>
       <c r="Z2">
-        <v>2.412406399666751</v>
+        <v>4.730008366916207</v>
       </c>
       <c r="AA2">
-        <v>2.564742571856037</v>
+        <v>4.793072083676618</v>
       </c>
       <c r="AB2">
-        <v>110253.0074575888</v>
+        <v>187534.7109809085</v>
       </c>
       <c r="AC2">
-        <v>88288.01698965518</v>
+        <v>119695.4187812794</v>
       </c>
       <c r="AD2">
-        <v>81493.37891860114</v>
+        <v>102246.8647483133</v>
       </c>
       <c r="AE2">
-        <v>81493.37891860114</v>
+        <v>102246.8647483133</v>
       </c>
       <c r="AF2">
-        <v>896418.6287202744</v>
+        <v>815620.4016150777</v>
       </c>
       <c r="AG2">
-        <v>894425.1043686147</v>
+        <v>810117.1216350649</v>
       </c>
       <c r="AH2">
-        <v>877234.8344525766</v>
+        <v>766521.6724376653</v>
       </c>
       <c r="AI2">
-        <v>853289.1083266118</v>
+        <v>616282.8554795422</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -701,106 +701,106 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20318670.10897443</v>
+        <v>20104424.02832121</v>
       </c>
       <c r="C3">
-        <v>630.5086658545667</v>
+        <v>610.7895441412394</v>
       </c>
       <c r="D3">
-        <v>1.034134390353197</v>
+        <v>3.506230121465001</v>
       </c>
       <c r="E3">
-        <v>94462.06705397381</v>
+        <v>90439.82607600825</v>
       </c>
       <c r="F3">
-        <v>772.6368316978676</v>
+        <v>718.3249140736564</v>
       </c>
       <c r="G3">
-        <v>4.866188184748155</v>
+        <v>11.6740380886185</v>
       </c>
       <c r="H3">
-        <v>0.7498386354409301</v>
+        <v>0.7636999677837225</v>
       </c>
       <c r="I3">
-        <v>0.7184850368510478</v>
+        <v>0.6894894634878974</v>
       </c>
       <c r="J3">
-        <v>0.7322803811983783</v>
+        <v>0.720216108531082</v>
       </c>
       <c r="K3">
-        <v>1065.172585500503</v>
+        <v>794.9490934320135</v>
       </c>
       <c r="L3">
-        <v>886.3719625295621</v>
+        <v>688.1126302944087</v>
       </c>
       <c r="M3">
-        <v>894.9816038660082</v>
+        <v>749.672289787482</v>
       </c>
       <c r="N3">
-        <v>1.034134390353197</v>
+        <v>3.506230121465001</v>
       </c>
       <c r="O3">
-        <v>1.034134390351711</v>
+        <v>3.506230121461007</v>
       </c>
       <c r="P3">
-        <v>1.034134390350503</v>
+        <v>3.50623012146078</v>
       </c>
       <c r="Q3">
-        <v>20321714.28064471</v>
+        <v>20131872.47807771</v>
       </c>
       <c r="R3">
-        <v>20320757.15694426</v>
+        <v>20122656.26958375</v>
       </c>
       <c r="S3">
-        <v>20319809.24068645</v>
+        <v>20114196.8539771</v>
       </c>
       <c r="T3">
-        <v>20318670.10897443</v>
+        <v>20104424.02832121</v>
       </c>
       <c r="U3">
-        <v>797795.3530141067</v>
+        <v>773821.3493799897</v>
       </c>
       <c r="V3">
-        <v>923569.4754098624</v>
+        <v>866033.3149832512</v>
       </c>
       <c r="W3">
-        <v>956607.9151326919</v>
+        <v>890738.3001148987</v>
       </c>
       <c r="X3">
-        <v>968439.6779434925</v>
+        <v>902221.5593867883</v>
       </c>
       <c r="Y3">
-        <v>4.866188184748155</v>
+        <v>11.6740380886185</v>
       </c>
       <c r="Z3">
-        <v>2.438973944139999</v>
+        <v>5.962034172630108</v>
       </c>
       <c r="AA3">
-        <v>2.427214240616966</v>
+        <v>5.712003916005717</v>
       </c>
       <c r="AB3">
-        <v>124957.794325137</v>
+        <v>223237.5541318485</v>
       </c>
       <c r="AC3">
-        <v>99734.73390357581</v>
+        <v>114899.3754309282</v>
       </c>
       <c r="AD3">
-        <v>94462.06705397381</v>
+        <v>90439.82607600825</v>
       </c>
       <c r="AE3">
-        <v>94462.06705397381</v>
+        <v>90439.82607600825</v>
       </c>
       <c r="AF3">
-        <v>918436.8874206935</v>
+        <v>859476.1970332914</v>
       </c>
       <c r="AG3">
-        <v>915922.4690773867</v>
+        <v>856027.2662289587</v>
       </c>
       <c r="AH3">
-        <v>901914.0427872727</v>
+        <v>841498.4392362933</v>
       </c>
       <c r="AI3">
-        <v>862335.3801396282</v>
+        <v>799424.2988454996</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -808,106 +808,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19629055.73649594</v>
+        <v>19168498.82928655</v>
       </c>
       <c r="C4">
-        <v>622.5518058664356</v>
+        <v>529.6291558649835</v>
       </c>
       <c r="D4">
-        <v>0.9823689311241134</v>
+        <v>2.934768594827698</v>
       </c>
       <c r="E4">
-        <v>92207.493283905</v>
+        <v>132009.4641953737</v>
       </c>
       <c r="F4">
-        <v>781.7991044343737</v>
+        <v>737.7637641980091</v>
       </c>
       <c r="G4">
-        <v>5.094764680167098</v>
+        <v>9.084405097316296</v>
       </c>
       <c r="H4">
-        <v>0.794003372508996</v>
+        <v>0.8341918239686308</v>
       </c>
       <c r="I4">
-        <v>0.7429618698129538</v>
+        <v>0.7581684518109706</v>
       </c>
       <c r="J4">
-        <v>0.7002848378042505</v>
+        <v>0.6754499949590702</v>
       </c>
       <c r="K4">
-        <v>791.1188101638778</v>
+        <v>693.2397158002728</v>
       </c>
       <c r="L4">
-        <v>1052.927965797659</v>
+        <v>707.5497884556622</v>
       </c>
       <c r="M4">
-        <v>978.2160982004018</v>
+        <v>839.9977712375278</v>
       </c>
       <c r="N4">
-        <v>0.9823689311241134</v>
+        <v>2.934768594827698</v>
       </c>
       <c r="O4">
-        <v>0.9823689311260382</v>
+        <v>2.934768594824427</v>
       </c>
       <c r="P4">
-        <v>0.9823689311238951</v>
+        <v>2.934768594824261</v>
       </c>
       <c r="Q4">
-        <v>19631779.35766123</v>
+        <v>19187798.43140503</v>
       </c>
       <c r="R4">
-        <v>19630835.33147088</v>
+        <v>19180563.64256871</v>
       </c>
       <c r="S4">
-        <v>19629819.20468856</v>
+        <v>19174469.61055347</v>
       </c>
       <c r="T4">
-        <v>19629055.73649594</v>
+        <v>19168498.82928655</v>
       </c>
       <c r="U4">
-        <v>789078.3213820022</v>
+        <v>674520.9730291383</v>
       </c>
       <c r="V4">
-        <v>923612.0911508559</v>
+        <v>841720.9941636688</v>
       </c>
       <c r="W4">
-        <v>966391.8458183887</v>
+        <v>902635.9960113307</v>
       </c>
       <c r="X4">
-        <v>980587.5916188767</v>
+        <v>925938.2005956525</v>
       </c>
       <c r="Y4">
-        <v>5.094764680167098</v>
+        <v>9.084405097316296</v>
       </c>
       <c r="Z4">
-        <v>2.500516114617066</v>
+        <v>4.736933654745622</v>
       </c>
       <c r="AA4">
-        <v>2.594248565554209</v>
+        <v>4.3474714425817</v>
       </c>
       <c r="AB4">
-        <v>119325.7864920113</v>
+        <v>205096.4378981815</v>
       </c>
       <c r="AC4">
-        <v>98791.01050818028</v>
+        <v>147885.8487436357</v>
       </c>
       <c r="AD4">
-        <v>92207.493283905</v>
+        <v>132009.4641953737</v>
       </c>
       <c r="AE4">
-        <v>92207.493283905</v>
+        <v>132009.4641953737</v>
       </c>
       <c r="AF4">
-        <v>928453.4698575931</v>
+        <v>880504.2281395277</v>
       </c>
       <c r="AG4">
-        <v>925716.256166673</v>
+        <v>872976.3187732371</v>
       </c>
       <c r="AH4">
-        <v>908909.5251004023</v>
+        <v>835236.4120304559</v>
       </c>
       <c r="AI4">
-        <v>874772.1032571091</v>
+        <v>760107.6369299788</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -915,748 +915,106 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20250532.28520158</v>
+        <v>18788157.85672184</v>
       </c>
       <c r="C5">
-        <v>654.1096371225606</v>
+        <v>495.9543176691218</v>
       </c>
       <c r="D5">
-        <v>1.040015722272405</v>
+        <v>1.94962286646675</v>
       </c>
       <c r="E5">
-        <v>121073.3807137614</v>
+        <v>75293.25018580208</v>
       </c>
       <c r="F5">
-        <v>721.8723759463089</v>
+        <v>812.62817784198</v>
       </c>
       <c r="G5">
-        <v>5.024990211394884</v>
+        <v>10.40135806389684</v>
       </c>
       <c r="H5">
-        <v>0.8328536562562093</v>
+        <v>0.7303781800742852</v>
       </c>
       <c r="I5">
-        <v>0.7174888301660757</v>
+        <v>0.7173258467325955</v>
       </c>
       <c r="J5">
-        <v>0.7290787782781192</v>
+        <v>0.7924180783783756</v>
       </c>
       <c r="K5">
-        <v>1095.591854699828</v>
+        <v>864.5980623073566</v>
       </c>
       <c r="L5">
-        <v>1015.402777758358</v>
+        <v>824.5543578242449</v>
       </c>
       <c r="M5">
-        <v>1091.104189250711</v>
+        <v>607.5319450350695</v>
       </c>
       <c r="N5">
-        <v>1.040015722272405</v>
+        <v>1.94962286646675</v>
       </c>
       <c r="O5">
-        <v>1.040015722270159</v>
+        <v>1.949622866465457</v>
       </c>
       <c r="P5">
-        <v>1.040015722272625</v>
+        <v>1.949622866463819</v>
       </c>
       <c r="Q5">
-        <v>20253995.78000401</v>
+        <v>18796887.62133595</v>
       </c>
       <c r="R5">
-        <v>20252815.606031</v>
+        <v>18794578.37459915</v>
       </c>
       <c r="S5">
-        <v>20251717.3131803</v>
+        <v>18791444.21930793</v>
       </c>
       <c r="T5">
-        <v>20250532.28520158</v>
+        <v>18788157.85672184</v>
       </c>
       <c r="U5">
-        <v>826870.1650295039</v>
+        <v>632136.49077651</v>
       </c>
       <c r="V5">
-        <v>886354.2222270956</v>
+        <v>938618.0951451855</v>
       </c>
       <c r="W5">
-        <v>902214.3562928453</v>
+        <v>996210.9993056896</v>
       </c>
       <c r="X5">
-        <v>908678.3434325398</v>
+        <v>1015767.673184192</v>
       </c>
       <c r="Y5">
-        <v>5.024990211394884</v>
+        <v>10.40135806389684</v>
       </c>
       <c r="Z5">
-        <v>2.557655382272404</v>
+        <v>4.804327426344878</v>
       </c>
       <c r="AA5">
-        <v>2.467334829128604</v>
+        <v>5.59703063756724</v>
       </c>
       <c r="AB5">
-        <v>155380.0118922593</v>
+        <v>187864.6036799627</v>
       </c>
       <c r="AC5">
-        <v>127715.7405954507</v>
+        <v>94325.25273438354</v>
       </c>
       <c r="AD5">
-        <v>121073.3807137614</v>
+        <v>75293.25018580208</v>
       </c>
       <c r="AE5">
-        <v>121073.3807137614</v>
+        <v>75293.25018580208</v>
       </c>
       <c r="AF5">
-        <v>863295.3375707528</v>
+        <v>962329.3266154348</v>
       </c>
       <c r="AG5">
-        <v>861957.494514494</v>
+        <v>958663.6381184004</v>
       </c>
       <c r="AH5">
-        <v>855508.311054854</v>
+        <v>935292.1163773148</v>
       </c>
       <c r="AI5">
-        <v>836884.1425001788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19861176.898072</v>
-      </c>
-      <c r="C6">
-        <v>610.0115804243626</v>
-      </c>
-      <c r="D6">
-        <v>1.00269263773248</v>
-      </c>
-      <c r="E6">
-        <v>98997.91671674582</v>
-      </c>
-      <c r="F6">
-        <v>761.4686704419526</v>
-      </c>
-      <c r="G6">
-        <v>4.488635277761234</v>
-      </c>
-      <c r="H6">
-        <v>0.8071135507857796</v>
-      </c>
-      <c r="I6">
-        <v>0.7498458702529794</v>
-      </c>
-      <c r="J6">
-        <v>0.6830194246546474</v>
-      </c>
-      <c r="K6">
-        <v>1010.923428004945</v>
-      </c>
-      <c r="L6">
-        <v>1099.014373219326</v>
-      </c>
-      <c r="M6">
-        <v>1010.506810247814</v>
-      </c>
-      <c r="N6">
-        <v>1.00269263773248</v>
-      </c>
-      <c r="O6">
-        <v>1.002692637730962</v>
-      </c>
-      <c r="P6">
-        <v>1.002692637731834</v>
-      </c>
-      <c r="Q6">
-        <v>19864314.16976143</v>
-      </c>
-      <c r="R6">
-        <v>19863298.21376717</v>
-      </c>
-      <c r="S6">
-        <v>19862193.27293063</v>
-      </c>
-      <c r="T6">
-        <v>19861176.898072</v>
-      </c>
-      <c r="U6">
-        <v>773300.3368537858</v>
-      </c>
-      <c r="V6">
-        <v>897634.8293481088</v>
-      </c>
-      <c r="W6">
-        <v>940903.2248466599</v>
-      </c>
-      <c r="X6">
-        <v>955528.7093560442</v>
-      </c>
-      <c r="Y6">
-        <v>4.488635277761234</v>
-      </c>
-      <c r="Z6">
-        <v>2.197215343656457</v>
-      </c>
-      <c r="AA6">
-        <v>2.29141993410926</v>
-      </c>
-      <c r="AB6">
-        <v>124671.6193540742</v>
-      </c>
-      <c r="AC6">
-        <v>104303.6891449017</v>
-      </c>
-      <c r="AD6">
-        <v>98997.91671674582</v>
-      </c>
-      <c r="AE6">
-        <v>98997.91671674582</v>
-      </c>
-      <c r="AF6">
-        <v>906252.0044714592</v>
-      </c>
-      <c r="AG6">
-        <v>902984.8943723603</v>
-      </c>
-      <c r="AH6">
-        <v>883239.4917478282</v>
-      </c>
-      <c r="AI6">
-        <v>848577.8961688927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>19341695.63295903</v>
-      </c>
-      <c r="C7">
-        <v>634.9161738051133</v>
-      </c>
-      <c r="D7">
-        <v>1.096110786870636</v>
-      </c>
-      <c r="E7">
-        <v>104202.717042474</v>
-      </c>
-      <c r="F7">
-        <v>808.8587472144964</v>
-      </c>
-      <c r="G7">
-        <v>5.235296321836934</v>
-      </c>
-      <c r="H7">
-        <v>0.8228975569854777</v>
-      </c>
-      <c r="I7">
-        <v>0.7648074208774639</v>
-      </c>
-      <c r="J7">
-        <v>0.7134477075436381</v>
-      </c>
-      <c r="K7">
-        <v>1041.689180321823</v>
-      </c>
-      <c r="L7">
-        <v>935.5157236436419</v>
-      </c>
-      <c r="M7">
-        <v>1180.818857255247</v>
-      </c>
-      <c r="N7">
-        <v>1.096110786870636</v>
-      </c>
-      <c r="O7">
-        <v>1.096110786869295</v>
-      </c>
-      <c r="P7">
-        <v>1.09611078686853</v>
-      </c>
-      <c r="Q7">
-        <v>19345489.86857785</v>
-      </c>
-      <c r="R7">
-        <v>19344071.16330318</v>
-      </c>
-      <c r="S7">
-        <v>19342947.17965106</v>
-      </c>
-      <c r="T7">
-        <v>19341695.63295903</v>
-      </c>
-      <c r="U7">
-        <v>804657.8629988845</v>
-      </c>
-      <c r="V7">
-        <v>954388.371215025</v>
-      </c>
-      <c r="W7">
-        <v>1000383.340323318</v>
-      </c>
-      <c r="X7">
-        <v>1014806.300970388</v>
-      </c>
-      <c r="Y7">
-        <v>5.235296321836934</v>
-      </c>
-      <c r="Z7">
-        <v>2.769866204252383</v>
-      </c>
-      <c r="AA7">
-        <v>2.465430117592278</v>
-      </c>
-      <c r="AB7">
-        <v>139931.1005124343</v>
-      </c>
-      <c r="AC7">
-        <v>111380.1422242995</v>
-      </c>
-      <c r="AD7">
-        <v>104202.717042474</v>
-      </c>
-      <c r="AE7">
-        <v>104202.717042474</v>
-      </c>
-      <c r="AF7">
-        <v>958161.9308600731</v>
-      </c>
-      <c r="AG7">
-        <v>955142.2044141381</v>
-      </c>
-      <c r="AH7">
-        <v>936940.754212744</v>
-      </c>
-      <c r="AI7">
-        <v>888573.2012995572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20609444.73196951</v>
-      </c>
-      <c r="C8">
-        <v>605.5781721583587</v>
-      </c>
-      <c r="D8">
-        <v>0.9257445896837728</v>
-      </c>
-      <c r="E8">
-        <v>112261.6081313548</v>
-      </c>
-      <c r="F8">
-        <v>765.8406055853022</v>
-      </c>
-      <c r="G8">
-        <v>4.777064812299518</v>
-      </c>
-      <c r="H8">
-        <v>0.8162806984447073</v>
-      </c>
-      <c r="I8">
-        <v>0.7770068455830272</v>
-      </c>
-      <c r="J8">
-        <v>0.6952596771393578</v>
-      </c>
-      <c r="K8">
-        <v>1134.349310230556</v>
-      </c>
-      <c r="L8">
-        <v>1039.080654218664</v>
-      </c>
-      <c r="M8">
-        <v>933.1942856147062</v>
-      </c>
-      <c r="N8">
-        <v>0.9257445896837728</v>
-      </c>
-      <c r="O8">
-        <v>0.925744589684141</v>
-      </c>
-      <c r="P8">
-        <v>0.9257445896839718</v>
-      </c>
-      <c r="Q8">
-        <v>20612107.11841251</v>
-      </c>
-      <c r="R8">
-        <v>20611307.36806785</v>
-      </c>
-      <c r="S8">
-        <v>20610416.87278284</v>
-      </c>
-      <c r="T8">
-        <v>20609444.73196951</v>
-      </c>
-      <c r="U8">
-        <v>766600.8222725412</v>
-      </c>
-      <c r="V8">
-        <v>901674.7663842839</v>
-      </c>
-      <c r="W8">
-        <v>947677.6491065561</v>
-      </c>
-      <c r="X8">
-        <v>960797.1328982362</v>
-      </c>
-      <c r="Y8">
-        <v>4.777064812299518</v>
-      </c>
-      <c r="Z8">
-        <v>2.324369056988752</v>
-      </c>
-      <c r="AA8">
-        <v>2.452695755317861</v>
-      </c>
-      <c r="AB8">
-        <v>143761.6866269216</v>
-      </c>
-      <c r="AC8">
-        <v>117875.4403633109</v>
-      </c>
-      <c r="AD8">
-        <v>112261.6081313548</v>
-      </c>
-      <c r="AE8">
-        <v>112261.6081313548</v>
-      </c>
-      <c r="AF8">
-        <v>911023.4604372437</v>
-      </c>
-      <c r="AG8">
-        <v>908481.0433617255</v>
-      </c>
-      <c r="AH8">
-        <v>890159.1165314207</v>
-      </c>
-      <c r="AI8">
-        <v>857498.7832517235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>19769750.79288921</v>
-      </c>
-      <c r="C9">
-        <v>638.6180887658013</v>
-      </c>
-      <c r="D9">
-        <v>1.061819520634311</v>
-      </c>
-      <c r="E9">
-        <v>72027.45582338978</v>
-      </c>
-      <c r="F9">
-        <v>787.0408772583223</v>
-      </c>
-      <c r="G9">
-        <v>5.505495401964439</v>
-      </c>
-      <c r="H9">
-        <v>0.8055525365683841</v>
-      </c>
-      <c r="I9">
-        <v>0.7310942300130316</v>
-      </c>
-      <c r="J9">
-        <v>0.6923895689882474</v>
-      </c>
-      <c r="K9">
-        <v>999.6270340196578</v>
-      </c>
-      <c r="L9">
-        <v>993.478060637673</v>
-      </c>
-      <c r="M9">
-        <v>973.7554410711172</v>
-      </c>
-      <c r="N9">
-        <v>1.061819520634311</v>
-      </c>
-      <c r="O9">
-        <v>1.061819520632032</v>
-      </c>
-      <c r="P9">
-        <v>1.061819520632581</v>
-      </c>
-      <c r="Q9">
-        <v>19773095.811529</v>
-      </c>
-      <c r="R9">
-        <v>19771997.94054323</v>
-      </c>
-      <c r="S9">
-        <v>19770877.83307912</v>
-      </c>
-      <c r="T9">
-        <v>19769750.79288921</v>
-      </c>
-      <c r="U9">
-        <v>808557.8596864574</v>
-      </c>
-      <c r="V9">
-        <v>932443.4960718695</v>
-      </c>
-      <c r="W9">
-        <v>972682.9552865032</v>
-      </c>
-      <c r="X9">
-        <v>987132.9883835393</v>
-      </c>
-      <c r="Y9">
-        <v>5.505495401964439</v>
-      </c>
-      <c r="Z9">
-        <v>2.73894843416741</v>
-      </c>
-      <c r="AA9">
-        <v>2.766546967805208</v>
-      </c>
-      <c r="AB9">
-        <v>109779.5426557519</v>
-      </c>
-      <c r="AC9">
-        <v>79480.36781244684</v>
-      </c>
-      <c r="AD9">
-        <v>72027.45582338978</v>
-      </c>
-      <c r="AE9">
-        <v>72027.45582338978</v>
-      </c>
-      <c r="AF9">
-        <v>934190.8544759221</v>
-      </c>
-      <c r="AG9">
-        <v>931403.9431976697</v>
-      </c>
-      <c r="AH9">
-        <v>915804.1448372131</v>
-      </c>
-      <c r="AI9">
-        <v>883855.7943430659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>20063252.01962645</v>
-      </c>
-      <c r="C10">
-        <v>625.3435631244157</v>
-      </c>
-      <c r="D10">
-        <v>0.9907256026203933</v>
-      </c>
-      <c r="E10">
-        <v>109493.3734024793</v>
-      </c>
-      <c r="F10">
-        <v>792.2199688572776</v>
-      </c>
-      <c r="G10">
-        <v>4.715814789126783</v>
-      </c>
-      <c r="H10">
-        <v>0.7790894345092508</v>
-      </c>
-      <c r="I10">
-        <v>0.7576622818628392</v>
-      </c>
-      <c r="J10">
-        <v>0.6485240681364375</v>
-      </c>
-      <c r="K10">
-        <v>967.5837970176709</v>
-      </c>
-      <c r="L10">
-        <v>839.2137342633616</v>
-      </c>
-      <c r="M10">
-        <v>1062.201669045729</v>
-      </c>
-      <c r="N10">
-        <v>0.9907256026203933</v>
-      </c>
-      <c r="O10">
-        <v>0.9907256026201887</v>
-      </c>
-      <c r="P10">
-        <v>0.9907256026176032</v>
-      </c>
-      <c r="Q10">
-        <v>20066068.04912482</v>
-      </c>
-      <c r="R10">
-        <v>20065025.45865184</v>
-      </c>
-      <c r="S10">
-        <v>20064201.73913639</v>
-      </c>
-      <c r="T10">
-        <v>20063252.01962645</v>
-      </c>
-      <c r="U10">
-        <v>791833.3691141438</v>
-      </c>
-      <c r="V10">
-        <v>922239.9096209583</v>
-      </c>
-      <c r="W10">
-        <v>975788.56934301</v>
-      </c>
-      <c r="X10">
-        <v>992144.082553728</v>
-      </c>
-      <c r="Y10">
-        <v>4.715814789126783</v>
-      </c>
-      <c r="Z10">
-        <v>2.496647531521647</v>
-      </c>
-      <c r="AA10">
-        <v>2.219167257613623</v>
-      </c>
-      <c r="AB10">
-        <v>136242.4096186625</v>
-      </c>
-      <c r="AC10">
-        <v>114724.4014856284</v>
-      </c>
-      <c r="AD10">
-        <v>109493.3734024793</v>
-      </c>
-      <c r="AE10">
-        <v>109493.3734024793</v>
-      </c>
-      <c r="AF10">
-        <v>939876.8575250047</v>
-      </c>
-      <c r="AG10">
-        <v>936440.7968613084</v>
-      </c>
-      <c r="AH10">
-        <v>915191.4905418677</v>
-      </c>
-      <c r="AI10">
-        <v>878222.0672975688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>20170195.65493501</v>
-      </c>
-      <c r="C11">
-        <v>601.0895237034413</v>
-      </c>
-      <c r="D11">
-        <v>0.8569085561365904</v>
-      </c>
-      <c r="E11">
-        <v>129153.0203426925</v>
-      </c>
-      <c r="F11">
-        <v>776.3119371790061</v>
-      </c>
-      <c r="G11">
-        <v>5.319759456399016</v>
-      </c>
-      <c r="H11">
-        <v>0.7895446810837488</v>
-      </c>
-      <c r="I11">
-        <v>0.7550166700076274</v>
-      </c>
-      <c r="J11">
-        <v>0.7064411133159512</v>
-      </c>
-      <c r="K11">
-        <v>945.3307883054708</v>
-      </c>
-      <c r="L11">
-        <v>958.9534064338424</v>
-      </c>
-      <c r="M11">
-        <v>783.7966296418613</v>
-      </c>
-      <c r="N11">
-        <v>0.8569085561365904</v>
-      </c>
-      <c r="O11">
-        <v>0.8569085561358479</v>
-      </c>
-      <c r="P11">
-        <v>0.8569085561364893</v>
-      </c>
-      <c r="Q11">
-        <v>20172169.49191511</v>
-      </c>
-      <c r="R11">
-        <v>20171593.95610591</v>
-      </c>
-      <c r="S11">
-        <v>20170889.80402884</v>
-      </c>
-      <c r="T11">
-        <v>20170195.65493501</v>
-      </c>
-      <c r="U11">
-        <v>761786.8339370524</v>
-      </c>
-      <c r="V11">
-        <v>912050.6571177249</v>
-      </c>
-      <c r="W11">
-        <v>959195.5231050735</v>
-      </c>
-      <c r="X11">
-        <v>973290.796484086</v>
-      </c>
-      <c r="Y11">
-        <v>5.319759456399016</v>
-      </c>
-      <c r="Z11">
-        <v>2.525873563658309</v>
-      </c>
-      <c r="AA11">
-        <v>2.793885892752391</v>
-      </c>
-      <c r="AB11">
-        <v>162023.8894991646</v>
-      </c>
-      <c r="AC11">
-        <v>135271.1788059433</v>
-      </c>
-      <c r="AD11">
-        <v>129153.0203426925</v>
-      </c>
-      <c r="AE11">
-        <v>129153.0203426925</v>
-      </c>
-      <c r="AF11">
-        <v>922463.4410698697</v>
-      </c>
-      <c r="AG11">
-        <v>920192.9699188059</v>
-      </c>
-      <c r="AH11">
-        <v>904198.9630828011</v>
-      </c>
-      <c r="AI11">
-        <v>874105.7778494193</v>
+        <v>851906.3979463533</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Data_nSamples.xlsx
+++ b/Training_Data_nSamples.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/lgkkri001_myuct_ac_za/Documents/A_MSc_Simple HX Network/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_1339FEBC5060B1989C7AE4C65E32F7F07452ADDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E61B1D-0A68-4E4B-B1DB-CD3296AB0272}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,17 +196,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +294,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +346,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +539,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,433 +658,469 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21533441.26894999</v>
+        <v>20761405.553961199</v>
       </c>
       <c r="C2">
-        <v>406.1322625712629</v>
+        <v>551.206641529026</v>
       </c>
       <c r="D2">
-        <v>3.288972364287583</v>
+        <v>3.60972684739767</v>
       </c>
       <c r="E2">
-        <v>102246.8647483133</v>
+        <v>66795.239871880505</v>
       </c>
       <c r="F2">
-        <v>677.521785558692</v>
+        <v>724.53806860654095</v>
       </c>
       <c r="G2">
-        <v>9.523080450581231</v>
+        <v>10.2114942056355</v>
       </c>
       <c r="H2">
-        <v>0.7137169382097754</v>
+        <v>0.70569208570449704</v>
       </c>
       <c r="I2">
-        <v>0.796891849362411</v>
+        <v>0.74267694233682902</v>
       </c>
       <c r="J2">
-        <v>0.782175773231273</v>
+        <v>0.739510964442611</v>
       </c>
       <c r="K2">
-        <v>748.0427214807343</v>
+        <v>729.56670337919104</v>
       </c>
       <c r="L2">
-        <v>779.8940818357509</v>
+        <v>769.19476415996303</v>
       </c>
       <c r="M2">
-        <v>759.5065468139358</v>
+        <v>712.40800816664603</v>
       </c>
       <c r="N2">
-        <v>3.288972364287583</v>
+        <v>3.6097268473976718</v>
       </c>
       <c r="O2">
-        <v>3.288972364283355</v>
+        <v>3.6097268473932611</v>
       </c>
       <c r="P2">
-        <v>3.288972364283517</v>
+        <v>3.6097268473937199</v>
       </c>
       <c r="Q2">
-        <v>21558185.31959894</v>
+        <v>20790217.37506656</v>
       </c>
       <c r="R2">
-        <v>21549969.47964752</v>
+        <v>20780934.607594032</v>
       </c>
       <c r="S2">
-        <v>21541533.10081408</v>
+        <v>20770911.901427168</v>
       </c>
       <c r="T2">
-        <v>21533441.26894999</v>
+        <v>20761405.553961221</v>
       </c>
       <c r="U2">
-        <v>486510.3880239241</v>
+        <v>698314.01612256875</v>
       </c>
       <c r="V2">
-        <v>768988.1674247545</v>
+        <v>852762.08349342854</v>
       </c>
       <c r="W2">
-        <v>831684.6016370875</v>
+        <v>893174.07153288904</v>
       </c>
       <c r="X2">
-        <v>847619.1161821793</v>
+        <v>906971.45797971962</v>
       </c>
       <c r="Y2">
-        <v>9.523080450581231</v>
+        <v>10.21149420563555</v>
       </c>
       <c r="Z2">
-        <v>4.730008366916207</v>
+        <v>5.0078648023966021</v>
       </c>
       <c r="AA2">
-        <v>4.793072083676618</v>
+        <v>5.2036294032541068</v>
       </c>
       <c r="AB2">
-        <v>187534.7109809085</v>
+        <v>162160.93852046269</v>
       </c>
       <c r="AC2">
-        <v>119695.4187812794</v>
+        <v>86085.652202745114</v>
       </c>
       <c r="AD2">
-        <v>102246.8647483133</v>
+        <v>66795.239871880476</v>
       </c>
       <c r="AE2">
-        <v>102246.8647483133</v>
+        <v>66795.239871880476</v>
       </c>
       <c r="AF2">
-        <v>815620.4016150777</v>
+        <v>866177.30575534888</v>
       </c>
       <c r="AG2">
-        <v>810117.1216350649</v>
+        <v>861299.97876495868</v>
       </c>
       <c r="AH2">
-        <v>766521.6724376653</v>
+        <v>832170.55056781741</v>
       </c>
       <c r="AI2">
-        <v>616282.8554795422</v>
+        <v>754160.27066769381</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20104424.02832121</v>
+        <v>16435842.24727373</v>
       </c>
       <c r="C3">
-        <v>610.7895441412394</v>
+        <v>512.93237181377185</v>
       </c>
       <c r="D3">
-        <v>3.506230121465001</v>
+        <v>3.2893289954515739</v>
       </c>
       <c r="E3">
-        <v>90439.82607600825</v>
+        <v>90782.604072678558</v>
       </c>
       <c r="F3">
-        <v>718.3249140736564</v>
+        <v>838.90840747143409</v>
       </c>
       <c r="G3">
-        <v>11.6740380886185</v>
+        <v>8.8133971343332185</v>
       </c>
       <c r="H3">
-        <v>0.7636999677837225</v>
+        <v>0.82859126830817953</v>
       </c>
       <c r="I3">
-        <v>0.6894894634878974</v>
+        <v>0.7865246686645202</v>
       </c>
       <c r="J3">
-        <v>0.720216108531082</v>
+        <v>0.71307083820363537</v>
       </c>
       <c r="K3">
-        <v>794.9490934320135</v>
+        <v>809.40488550230532</v>
       </c>
       <c r="L3">
-        <v>688.1126302944087</v>
+        <v>665.85331721366038</v>
       </c>
       <c r="M3">
-        <v>749.672289787482</v>
+        <v>792.38864916147168</v>
       </c>
       <c r="N3">
-        <v>3.506230121465001</v>
+        <v>3.2893289954515739</v>
       </c>
       <c r="O3">
-        <v>3.506230121461007</v>
+        <v>3.28932899544805</v>
       </c>
       <c r="P3">
-        <v>3.50623012146078</v>
+        <v>3.2893289954481779</v>
       </c>
       <c r="Q3">
-        <v>20131872.47807771</v>
+        <v>16460377.472447211</v>
       </c>
       <c r="R3">
-        <v>20122656.26958375</v>
+        <v>16451804.076675281</v>
       </c>
       <c r="S3">
-        <v>20114196.8539771</v>
+        <v>16444599.753366821</v>
       </c>
       <c r="T3">
-        <v>20104424.02832121</v>
+        <v>16435842.24727373</v>
       </c>
       <c r="U3">
-        <v>773821.3493799897</v>
+        <v>660426.59463732818</v>
       </c>
       <c r="V3">
-        <v>866033.3149832512</v>
+        <v>934515.19978834759</v>
       </c>
       <c r="W3">
-        <v>890738.3001148987</v>
+        <v>1021264.578938003</v>
       </c>
       <c r="X3">
-        <v>902221.5593867883</v>
+        <v>1051004.182114044</v>
       </c>
       <c r="Y3">
-        <v>11.6740380886185</v>
+        <v>8.8133971343332185</v>
       </c>
       <c r="Z3">
-        <v>5.962034172630108</v>
+        <v>4.5982499910904986</v>
       </c>
       <c r="AA3">
-        <v>5.712003916005717</v>
+        <v>4.215147143253418</v>
       </c>
       <c r="AB3">
-        <v>223237.5541318485</v>
+        <v>167732.65084427371</v>
       </c>
       <c r="AC3">
-        <v>114899.3754309282</v>
+        <v>104861.3420111233</v>
       </c>
       <c r="AD3">
-        <v>90439.82607600825</v>
+        <v>90782.604072678558</v>
       </c>
       <c r="AE3">
-        <v>90439.82607600825</v>
+        <v>90782.604072678558</v>
       </c>
       <c r="AF3">
-        <v>859476.1970332914</v>
+        <v>991353.9350579856</v>
       </c>
       <c r="AG3">
-        <v>856027.2662289587</v>
+        <v>980254.54425947648</v>
       </c>
       <c r="AH3">
-        <v>841498.4392362933</v>
+        <v>918198.92555096932</v>
       </c>
       <c r="AI3">
-        <v>799424.2988454996</v>
+        <v>766366.97032648232</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19168498.82928655</v>
+        <v>19746797.29642801</v>
       </c>
       <c r="C4">
-        <v>529.6291558649835</v>
+        <v>617.83426307083482</v>
       </c>
       <c r="D4">
-        <v>2.934768594827698</v>
+        <v>2.886944403782095</v>
       </c>
       <c r="E4">
-        <v>132009.4641953737</v>
+        <v>109288.15630042811</v>
       </c>
       <c r="F4">
-        <v>737.7637641980091</v>
+        <v>700.4770283465632</v>
       </c>
       <c r="G4">
-        <v>9.084405097316296</v>
+        <v>9.9178167014224385</v>
       </c>
       <c r="H4">
-        <v>0.8341918239686308</v>
+        <v>0.74982900257806673</v>
       </c>
       <c r="I4">
-        <v>0.7581684518109706</v>
+        <v>0.71266990626273574</v>
       </c>
       <c r="J4">
-        <v>0.6754499949590702</v>
+        <v>0.75238098017624955</v>
       </c>
       <c r="K4">
-        <v>693.2397158002728</v>
+        <v>625.37592490814166</v>
       </c>
       <c r="L4">
-        <v>707.5497884556622</v>
+        <v>908.83111704502517</v>
       </c>
       <c r="M4">
-        <v>839.9977712375278</v>
+        <v>855.69418311768175</v>
       </c>
       <c r="N4">
-        <v>2.934768594827698</v>
+        <v>2.886944403782095</v>
       </c>
       <c r="O4">
-        <v>2.934768594824427</v>
+        <v>2.8869444037772301</v>
       </c>
       <c r="P4">
-        <v>2.934768594824261</v>
+        <v>2.8869444037769179</v>
       </c>
       <c r="Q4">
-        <v>19187798.43140503</v>
+        <v>19766715.803890821</v>
       </c>
       <c r="R4">
-        <v>19180563.64256871</v>
+        <v>19759584.065225828</v>
       </c>
       <c r="S4">
-        <v>19174469.61055347</v>
+        <v>19752009.459548671</v>
       </c>
       <c r="T4">
-        <v>19168498.82928655</v>
+        <v>19746797.29642801</v>
       </c>
       <c r="U4">
-        <v>674520.9730291383</v>
+        <v>783075.4206876969</v>
       </c>
       <c r="V4">
-        <v>841720.9941636688</v>
+        <v>857475.97774739447</v>
       </c>
       <c r="W4">
-        <v>902635.9960113307</v>
+        <v>874932.80437430111</v>
       </c>
       <c r="X4">
-        <v>925938.2005956525</v>
+        <v>881952.3394052186</v>
       </c>
       <c r="Y4">
-        <v>9.084405097316296</v>
+        <v>9.9178167014224385</v>
       </c>
       <c r="Z4">
-        <v>4.736933654745622</v>
+        <v>4.8842251053961743</v>
       </c>
       <c r="AA4">
-        <v>4.3474714425817</v>
+        <v>5.0335915960409867</v>
       </c>
       <c r="AB4">
-        <v>205096.4378981815</v>
+        <v>192482.82498476151</v>
       </c>
       <c r="AC4">
-        <v>147885.8487436357</v>
+        <v>130968.9177730107</v>
       </c>
       <c r="AD4">
-        <v>132009.4641953737</v>
+        <v>109288.15630042811</v>
       </c>
       <c r="AE4">
-        <v>132009.4641953737</v>
+        <v>109288.15630042811</v>
       </c>
       <c r="AF4">
-        <v>880504.2281395277</v>
+        <v>840241.03896073496</v>
       </c>
       <c r="AG4">
-        <v>872976.3187732371</v>
+        <v>838197.74576385855</v>
       </c>
       <c r="AH4">
-        <v>835236.4120304559</v>
+        <v>827879.44821402419</v>
       </c>
       <c r="AI4">
-        <v>760107.6369299788</v>
+        <v>795526.37131136516</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18788157.85672184</v>
+        <v>21941470.15101232</v>
       </c>
       <c r="C5">
-        <v>495.9543176691218</v>
+        <v>474.24925759936048</v>
       </c>
       <c r="D5">
-        <v>1.94962286646675</v>
+        <v>2.4703045025320689</v>
       </c>
       <c r="E5">
-        <v>75293.25018580208</v>
+        <v>121144.6086075139</v>
       </c>
       <c r="F5">
-        <v>812.62817784198</v>
+        <v>648.2191454263201</v>
       </c>
       <c r="G5">
-        <v>10.40135806389684</v>
+        <v>10.82307978480806</v>
       </c>
       <c r="H5">
-        <v>0.7303781800742852</v>
+        <v>0.77999150078835011</v>
       </c>
       <c r="I5">
-        <v>0.7173258467325955</v>
+        <v>0.76232012301447027</v>
       </c>
       <c r="J5">
-        <v>0.7924180783783756</v>
+        <v>0.8040605878917424</v>
       </c>
       <c r="K5">
-        <v>864.5980623073566</v>
+        <v>792.93617500585947</v>
       </c>
       <c r="L5">
-        <v>824.5543578242449</v>
+        <v>723.96275445004346</v>
       </c>
       <c r="M5">
-        <v>607.5319450350695</v>
+        <v>681.39238122130928</v>
       </c>
       <c r="N5">
-        <v>1.94962286646675</v>
+        <v>2.4703045025320689</v>
       </c>
       <c r="O5">
-        <v>1.949622866465457</v>
+        <v>2.470304502528236</v>
       </c>
       <c r="P5">
-        <v>1.949622866463819</v>
+        <v>2.470304502528534</v>
       </c>
       <c r="Q5">
-        <v>18796887.62133595</v>
+        <v>21954885.013436679</v>
       </c>
       <c r="R5">
-        <v>18794578.37459915</v>
+        <v>21950726.881615508</v>
       </c>
       <c r="S5">
-        <v>18791444.21930793</v>
+        <v>21946308.96816422</v>
       </c>
       <c r="T5">
-        <v>18788157.85672184</v>
+        <v>21941470.15101232</v>
       </c>
       <c r="U5">
-        <v>632136.49077651</v>
+        <v>593264.83353497868</v>
       </c>
       <c r="V5">
-        <v>938618.0951451855</v>
+        <v>771253.73168633366</v>
       </c>
       <c r="W5">
-        <v>996210.9993056896</v>
+        <v>804322.90704871994</v>
       </c>
       <c r="X5">
-        <v>1015767.673184192</v>
+        <v>814472.08584712236</v>
       </c>
       <c r="Y5">
-        <v>10.40135806389684</v>
+        <v>10.82307978480806</v>
       </c>
       <c r="Z5">
-        <v>4.804327426344878</v>
+        <v>5.3295591399156343</v>
       </c>
       <c r="AA5">
-        <v>5.59703063756724</v>
+        <v>5.493520644908485</v>
       </c>
       <c r="AB5">
-        <v>187864.6036799627</v>
+        <v>234591.98696144231</v>
       </c>
       <c r="AC5">
-        <v>94325.25273438354</v>
+        <v>141708.19193054849</v>
       </c>
       <c r="AD5">
-        <v>75293.25018580208</v>
+        <v>121144.6086075139</v>
       </c>
       <c r="AE5">
-        <v>75293.25018580208</v>
+        <v>121144.6086075139</v>
       </c>
       <c r="AF5">
-        <v>962329.3266154348</v>
+        <v>784376.69378065353</v>
       </c>
       <c r="AG5">
-        <v>958663.6381184004</v>
+        <v>782060.2032252145</v>
       </c>
       <c r="AH5">
-        <v>935292.1163773148</v>
+        <v>766732.30636760837</v>
       </c>
       <c r="AI5">
-        <v>851906.3979463533</v>
-      </c>
+        <v>702022.86379932927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
